--- a/outputs-HGR-r202-archive/g__Anaerotignum_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Anaerotignum_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_11.fasta</t>
+          <t>label_UMGS137_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_18.fasta</t>
+          <t>label_UMGS137_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -729,7 +729,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_2.fasta</t>
+          <t>label_UMGS137_26.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -750,7 +750,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_6.fasta</t>
+          <t>label_UMGS137_28.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,7 +771,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_15.fasta</t>
+          <t>label_UMGS137_29.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -792,28 +792,28 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_16.fasta</t>
+          <t>label_UMGS137_30.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.4464286</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.5535714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5535714</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_26.fasta</t>
+          <t>label_UMGS137_9.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_28.fasta</t>
+          <t>label_UMGS137_0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_29.fasta</t>
+          <t>label_UMGS137_10.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,28 +876,28 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_30.fasta</t>
+          <t>label_UMGS137_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4464286</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5535714</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5535714</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995</t>
+          <t>s__Anaerotignum faecicola</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_9.fasta</t>
+          <t>label_UMGS137_27.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_0.fasta</t>
+          <t>label_UMGS137_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_10.fasta</t>
+          <t>label_UMGS137_31.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_23.fasta</t>
+          <t>label_UMGS137_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_27.fasta</t>
+          <t>label_UMGS137_13.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_3.fasta</t>
+          <t>label_UMGS137_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_31.fasta</t>
+          <t>label_UMGS137_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_5.fasta</t>
+          <t>label_UMGS137_25.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,7 +1065,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_13.fasta</t>
+          <t>label_UMGS137_4.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_17.fasta</t>
+          <t>label_UMGS137_7.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_19.fasta</t>
+          <t>label_UMGS137_8.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_25.fasta</t>
+          <t>label_UMGS137_1.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,7 +1149,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_4.fasta</t>
+          <t>label_UMGS137_12.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1170,7 +1170,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_7.fasta</t>
+          <t>label_UMGS137_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1191,7 +1191,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_8.fasta</t>
+          <t>label_UMGS137_20.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1212,7 +1212,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_1.fasta</t>
+          <t>label_UMGS137_21.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1233,7 +1233,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_12.fasta</t>
+          <t>label_UMGS137_22.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1254,7 +1254,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS137_14.fasta</t>
+          <t>label_UMGS137_24.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1267,90 +1267,6 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS137_20.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS137_21.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS137_22.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS137_24.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>s__Anaerotignum faecicola</t>
         </is>
@@ -1367,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,7 +1468,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_10.fasta</t>
+          <t>label_12718_7_41_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1573,7 +1489,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_14.fasta</t>
+          <t>label_12718_7_41_12.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1594,7 +1510,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_19.fasta</t>
+          <t>label_12718_7_41_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1615,7 +1531,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_20.fasta</t>
+          <t>label_12718_7_41_25.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1636,7 +1552,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_26.fasta</t>
+          <t>label_12718_7_41_30.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1657,7 +1573,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_27.fasta</t>
+          <t>label_12718_7_41_34.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1678,7 +1594,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_33.fasta</t>
+          <t>label_12718_7_41_37.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1699,7 +1615,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_35.fasta</t>
+          <t>label_12718_7_41_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1720,7 +1636,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_36.fasta</t>
+          <t>label_12718_7_41_17.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1741,7 +1657,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_4.fasta</t>
+          <t>label_12718_7_41_18.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1762,7 +1678,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_0.fasta</t>
+          <t>label_12718_7_41_21.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1783,17 +1699,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_12.fasta</t>
+          <t>label_12718_7_41_32.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.4464286</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.5535714</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.5535714</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1804,7 +1720,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_13.fasta</t>
+          <t>label_12718_7_41_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1825,7 +1741,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_25.fasta</t>
+          <t>label_12718_7_41_9.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1846,7 +1762,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_30.fasta</t>
+          <t>label_12718_7_41_15.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1867,7 +1783,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_34.fasta</t>
+          <t>label_12718_7_41_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1888,7 +1804,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_37.fasta</t>
+          <t>label_12718_7_41_22.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1909,7 +1825,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_1.fasta</t>
+          <t>label_12718_7_41_24.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1930,7 +1846,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_17.fasta</t>
+          <t>label_12718_7_41_29.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1951,7 +1867,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_18.fasta</t>
+          <t>label_12718_7_41_3.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1972,7 +1888,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_21.fasta</t>
+          <t>label_12718_7_41_5.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1993,17 +1909,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_32.fasta</t>
+          <t>label_12718_7_41_11.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4464286</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5535714</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5535714</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2014,7 +1930,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_7.fasta</t>
+          <t>label_12718_7_41_16.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2035,7 +1951,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_9.fasta</t>
+          <t>label_12718_7_41_23.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2056,7 +1972,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_15.fasta</t>
+          <t>label_12718_7_41_28.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2077,7 +1993,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_2.fasta</t>
+          <t>label_12718_7_41_31.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2098,7 +2014,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_22.fasta</t>
+          <t>label_12718_7_41_6.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2119,7 +2035,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_41_24.fasta</t>
+          <t>label_12718_7_41_8.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2132,216 +2048,6 @@
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_29.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_3.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_5.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_11.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_16.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_23.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_28.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_31.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_6.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_41_8.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>s__Anaerotignum sp001304995</t>
         </is>
